--- a/data/trans_camb/P5_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_1-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>-1,04</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 22,15</t>
+          <t>-34,39; 26,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,0; 12,87</t>
+          <t>-18,89; 21,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 12,67</t>
+          <t>-19,36; 16,1</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>-5,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>-2,31%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 55,61</t>
+          <t>-56,36; 70,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 33,4</t>
+          <t>-36,82; 69,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 30,32</t>
+          <t>-35,51; 42,58</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,53</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 11,33</t>
+          <t>-11,53; 16,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 8,45</t>
+          <t>-11,44; 9,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 7,46</t>
+          <t>-8,54; 8,69</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>0,99%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 24,4</t>
+          <t>-17,82; 33,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 20,16</t>
+          <t>-20,71; 21,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 16,33</t>
+          <t>-14,69; 17,06</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,74</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 13,96</t>
+          <t>-12,47; 15,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 9,59</t>
+          <t>-10,53; 10,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 8,4</t>
+          <t>-6,83; 9,2</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 37,27</t>
+          <t>-24,78; 43,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 26,63</t>
+          <t>-22,98; 29,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 21,41</t>
+          <t>-15,24; 26,05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 10,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 5,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 5,45</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 21,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,48; 13,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 12,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,19</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; 11,18</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; 6,29</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 5,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; 23,8</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-16,04; 14,92</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 12,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_1-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,04</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.867460402219407</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.642932925693413</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.270414304965418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-34,39; 26,95</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,89; 21,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-19,36; 16,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-27.24409787727486</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.89541687627304</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-15.92038177492063</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,51%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,8%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,31%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>32.78144721502486</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.68038149078244</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.06847163453164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-56,36; 70,27</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-36,82; 69,79</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-35,51; 42,58</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.05929413104527494</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.0390111408360866</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.05041663864921426</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.4361631545232323</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3539947413797028</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2822321188806583</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,53; 16,33</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,44; 9,35</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,54; 8,69</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.002908772681316</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.7609295779749503</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.5297614834950328</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>3,08%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,12%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.821208020390064</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.687728267357436</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.06429891428316736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-17,82; 33,2</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-20,71; 21,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-14,69; 17,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.82983312149249</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-12.36556573327795</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-8.57374998339542</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.12589666778582</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.045852358959539</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.299541560168938</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-12,47; 15,21</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,53; 10,54</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 9,2</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.03164230134085503</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.03340676960167737</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.001192402383250754</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,57%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,4%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,79%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1795533557388346</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2278082769694467</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1466339656567454</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-24,78; 43,54</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-22,98; 29,74</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-15,24; 26,05</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.3294752828426823</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1818299535352144</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1637493821393738</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.3183998800339038</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.8303765246129802</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.6102139484446045</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-14.01518102952706</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.363841726891064</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.071155217339873</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>14.03735595473987</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>11.74971440636796</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>9.485375004321908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.007559456781013129</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.02024269699203344</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.01470128185930179</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2932860387327983</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2057370691545474</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1572363141769546</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-7,23; 11,18</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-7,87; 6,29</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 5,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.3895170843840156</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.3412960778869864</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2557143668763245</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-0,63%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.266399887048109</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.1345041007722092</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5316884626048957</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-13,64; 23,8</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-16,04; 14,92</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-11,11; 12,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.047397813266447</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-7.591314518007727</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.46534765081468</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>11.05694042034893</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.528475703465246</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.956659928721832</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.02510010706466037</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.002959756594705435</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.01112898250062574</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1306781907164749</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1551775435234519</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.109118422785282</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2529143239056895</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1509087285859446</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1326729816100692</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
